--- a/notebooks/assets/features_0_1/grid_0_1_0903_0910_2021.xlsx
+++ b/notebooks/assets/features_0_1/grid_0_1_0903_0910_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>Features</t>
   </si>
@@ -22,172 +22,235 @@
     <t>Final Score</t>
   </si>
   <si>
+    <t>dsf2</t>
+  </si>
+  <si>
+    <t>farms</t>
+  </si>
+  <si>
+    <t>temp_2m</t>
+  </si>
+  <si>
+    <t>no2_int</t>
+  </si>
+  <si>
+    <t>siarl12</t>
+  </si>
+  <si>
+    <t>siarl9</t>
+  </si>
+  <si>
     <t>soil_text4</t>
   </si>
   <si>
+    <t>rad_glob_int</t>
+  </si>
+  <si>
+    <t>so2_cams</t>
+  </si>
+  <si>
+    <t>nox_int</t>
+  </si>
+  <si>
+    <t>temp_int</t>
+  </si>
+  <si>
+    <t>nh3_cams</t>
+  </si>
+  <si>
+    <t>pm25_cams</t>
+  </si>
+  <si>
+    <t>dust_cams</t>
+  </si>
+  <si>
+    <t>pm10_int</t>
+  </si>
+  <si>
+    <t>co_s5p</t>
+  </si>
+  <si>
+    <t>pm10_cams</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>co_int</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>ch2o_s5p</t>
+  </si>
+  <si>
+    <t>soil_text7</t>
+  </si>
+  <si>
+    <t>so2_int</t>
+  </si>
+  <si>
+    <t>uvai</t>
+  </si>
+  <si>
+    <t>no2_cams</t>
+  </si>
+  <si>
+    <t>dsf4</t>
+  </si>
+  <si>
+    <t>farm_sheep</t>
+  </si>
+  <si>
+    <t>soil_text5</t>
+  </si>
+  <si>
+    <t>siarl2</t>
+  </si>
+  <si>
+    <t>dsf3</t>
+  </si>
+  <si>
+    <t>ndvi</t>
+  </si>
+  <si>
+    <t>o3_int</t>
+  </si>
+  <si>
+    <t>o3_s5p</t>
+  </si>
+  <si>
+    <t>e_wind</t>
+  </si>
+  <si>
+    <t>dsf5</t>
+  </si>
+  <si>
+    <t>prec</t>
+  </si>
+  <si>
+    <t>no_cams</t>
+  </si>
+  <si>
+    <t>clim_zone</t>
+  </si>
+  <si>
+    <t>aod_047</t>
+  </si>
+  <si>
+    <t>prec_int</t>
+  </si>
+  <si>
+    <t>co_cams</t>
+  </si>
+  <si>
+    <t>nh3_int</t>
+  </si>
+  <si>
+    <t>soil2</t>
+  </si>
+  <si>
+    <t>air_hum_int</t>
+  </si>
+  <si>
+    <t>soil_text10</t>
+  </si>
+  <si>
+    <t>aq_zone</t>
+  </si>
+  <si>
+    <t>soil_text9</t>
+  </si>
+  <si>
+    <t>soil1</t>
+  </si>
+  <si>
+    <t>soil_text3</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>soil8</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>farm_poultry</t>
+  </si>
+  <si>
+    <t>o3_cams</t>
+  </si>
+  <si>
+    <t>dsf11</t>
+  </si>
+  <si>
+    <t>farm_pigs</t>
+  </si>
+  <si>
+    <t>dsf13</t>
+  </si>
+  <si>
     <t>int_prim_sec</t>
   </si>
   <si>
-    <t>pm10_cams</t>
-  </si>
-  <si>
-    <t>dsf2</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>farm_pigs</t>
-  </si>
-  <si>
-    <t>soil_text7</t>
-  </si>
-  <si>
-    <t>temp_2m</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>aod_047</t>
-  </si>
-  <si>
-    <t>co_cams</t>
-  </si>
-  <si>
-    <t>nh3_cams</t>
+    <t>dsf14</t>
+  </si>
+  <si>
+    <t>n_wind</t>
+  </si>
+  <si>
+    <t>dsf12</t>
+  </si>
+  <si>
+    <t>nmvocs_cams</t>
+  </si>
+  <si>
+    <t>sec_road</t>
+  </si>
+  <si>
+    <t>soil_text6</t>
+  </si>
+  <si>
+    <t>soil_text</t>
+  </si>
+  <si>
+    <t>soil_text1</t>
+  </si>
+  <si>
+    <t>wind_speed_int</t>
+  </si>
+  <si>
+    <t>soil9</t>
+  </si>
+  <si>
+    <t>soil5</t>
+  </si>
+  <si>
+    <t>highway</t>
+  </si>
+  <si>
+    <t>soil_text2</t>
+  </si>
+  <si>
+    <t>soil4</t>
+  </si>
+  <si>
+    <t>soil7</t>
+  </si>
+  <si>
+    <t>prim_road</t>
   </si>
   <si>
     <t>int_sec</t>
   </si>
   <si>
-    <t>nmvocs_cams</t>
-  </si>
-  <si>
-    <t>temp_int</t>
-  </si>
-  <si>
-    <t>so2_cams</t>
-  </si>
-  <si>
-    <t>no2_int</t>
-  </si>
-  <si>
-    <t>nox_int</t>
-  </si>
-  <si>
-    <t>rad_glob_int</t>
-  </si>
-  <si>
-    <t>no2_cams</t>
-  </si>
-  <si>
-    <t>pm10_int</t>
-  </si>
-  <si>
-    <t>clim_zone</t>
-  </si>
-  <si>
-    <t>prim_road</t>
-  </si>
-  <si>
     <t>int_prim</t>
   </si>
   <si>
-    <t>soil8</t>
-  </si>
-  <si>
-    <t>sec_road</t>
-  </si>
-  <si>
-    <t>soil_text5</t>
-  </si>
-  <si>
-    <t>nh3_int</t>
-  </si>
-  <si>
-    <t>highway</t>
-  </si>
-  <si>
-    <t>farm_poultry</t>
-  </si>
-  <si>
-    <t>wind_dir_int</t>
-  </si>
-  <si>
-    <t>dsf3</t>
-  </si>
-  <si>
-    <t>soil_text9</t>
-  </si>
-  <si>
-    <t>soil7</t>
-  </si>
-  <si>
-    <t>aq_zone</t>
-  </si>
-  <si>
-    <t>farm_sheep</t>
-  </si>
-  <si>
-    <t>air_hum_int</t>
-  </si>
-  <si>
-    <t>o3_cams</t>
-  </si>
-  <si>
-    <t>soil4</t>
-  </si>
-  <si>
-    <t>soil</t>
-  </si>
-  <si>
-    <t>o3_int</t>
-  </si>
-  <si>
-    <t>soilSum</t>
-  </si>
-  <si>
-    <t>soil1</t>
-  </si>
-  <si>
-    <t>soil2</t>
-  </si>
-  <si>
-    <t>soil_text10</t>
-  </si>
-  <si>
-    <t>soil5</t>
-  </si>
-  <si>
-    <t>soil9</t>
-  </si>
-  <si>
-    <t>soil_text</t>
-  </si>
-  <si>
-    <t>soilTextSum</t>
-  </si>
-  <si>
-    <t>soil_text1</t>
-  </si>
-  <si>
-    <t>soil_text2</t>
-  </si>
-  <si>
-    <t>soil_text3</t>
-  </si>
-  <si>
-    <t>ndvi</t>
-  </si>
-  <si>
-    <t>soil_text6</t>
-  </si>
-  <si>
-    <t>soil_text8</t>
-  </si>
-  <si>
-    <t>dusafSum</t>
+    <t>soil_moist</t>
   </si>
 </sst>
 </file>
@@ -545,7 +608,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -561,7 +624,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -572,40 +635,40 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -616,7 +679,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -627,7 +690,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -638,7 +701,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
@@ -649,7 +712,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -660,7 +723,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -671,7 +734,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -682,7 +745,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -693,7 +756,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -704,7 +767,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -715,7 +778,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
@@ -726,7 +789,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -737,7 +800,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -748,62 +811,62 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -814,7 +877,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -825,7 +888,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -836,95 +899,95 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
       </c>
       <c r="C27">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
         <v>31</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s">
         <v>33</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="B34" t="s">
         <v>34</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -935,7 +998,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>36</v>
@@ -946,7 +1009,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
         <v>37</v>
@@ -957,7 +1020,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="1">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -968,7 +1031,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="1">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -979,40 +1042,40 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="1">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="1">
-        <v>5</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
         <v>41</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="1">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="1">
-        <v>6</v>
+        <v>66</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1023,7 +1086,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="1">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1034,7 +1097,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="1">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -1045,7 +1108,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="1">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1056,7 +1119,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -1067,7 +1130,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="1">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -1078,7 +1141,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="1">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -1089,7 +1152,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="1">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
@@ -1100,7 +1163,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="1">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="B51" t="s">
         <v>51</v>
@@ -1111,7 +1174,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="1">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -1122,7 +1185,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="1">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B53" t="s">
         <v>53</v>
@@ -1133,7 +1196,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="1">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B54" t="s">
         <v>54</v>
@@ -1144,7 +1207,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="1">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -1155,7 +1218,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="1">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -1166,13 +1229,244 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
       </c>
       <c r="C57">
         <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>10</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>34</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>47</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1">
+        <v>9</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1">
+        <v>38</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1">
+        <v>29</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1">
+        <v>23</v>
+      </c>
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1">
+        <v>76</v>
+      </c>
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>69</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1">
+        <v>19</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1">
+        <v>36</v>
+      </c>
+      <c r="B71" t="s">
+        <v>71</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1">
+        <v>25</v>
+      </c>
+      <c r="B72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1">
+        <v>18</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1">
+        <v>20</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1">
+        <v>37</v>
+      </c>
+      <c r="B75" t="s">
+        <v>75</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>76</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1">
+        <v>33</v>
+      </c>
+      <c r="B77" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1">
+        <v>49</v>
+      </c>
+      <c r="B78" t="s">
+        <v>78</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/notebooks/assets/features_0_1/grid_0_1_0903_0910_2021.xlsx
+++ b/notebooks/assets/features_0_1/grid_0_1_0903_0910_2021.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Features</t>
   </si>
@@ -22,70 +22,88 @@
     <t>Borda Count Voting</t>
   </si>
   <si>
+    <t>rad_glob_int</t>
+  </si>
+  <si>
+    <t>nh3_cams</t>
+  </si>
+  <si>
     <t>pm10_int</t>
   </si>
   <si>
+    <t>pm10_cams</t>
+  </si>
+  <si>
+    <t>temp_int</t>
+  </si>
+  <si>
+    <t>so2_int</t>
+  </si>
+  <si>
+    <t>pm25_int</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>pm25_cams</t>
+  </si>
+  <si>
+    <t>press</t>
+  </si>
+  <si>
+    <t>co_cams</t>
+  </si>
+  <si>
+    <t>nox_int</t>
+  </si>
+  <si>
+    <t>no2_int</t>
+  </si>
+  <si>
+    <t>no2_cams</t>
+  </si>
+  <si>
+    <t>temp_2m</t>
+  </si>
+  <si>
+    <t>air_hum_int</t>
+  </si>
+  <si>
+    <t>so2_cams</t>
+  </si>
+  <si>
+    <t>aod_047</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>nmvocs_cams</t>
+  </si>
+  <si>
+    <t>o3_int</t>
+  </si>
+  <si>
+    <t>sec_road</t>
+  </si>
+  <si>
+    <t>int_sec</t>
+  </si>
+  <si>
+    <t>o3_cams</t>
+  </si>
+  <si>
+    <t>ndvi</t>
+  </si>
+  <si>
+    <t>e_wind</t>
+  </si>
+  <si>
+    <t>farm_sheep</t>
+  </si>
+  <si>
     <t>aod_055</t>
-  </si>
-  <si>
-    <t>air_hum_int</t>
-  </si>
-  <si>
-    <t>aod_047</t>
-  </si>
-  <si>
-    <t>temp_2m</t>
-  </si>
-  <si>
-    <t>no2_int</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>pm25_cams</t>
-  </si>
-  <si>
-    <t>o3_cams</t>
-  </si>
-  <si>
-    <t>nox_int</t>
-  </si>
-  <si>
-    <t>press</t>
-  </si>
-  <si>
-    <t>o3_int</t>
-  </si>
-  <si>
-    <t>pm10_cams</t>
-  </si>
-  <si>
-    <t>no2_cams</t>
-  </si>
-  <si>
-    <t>nmvocs_cams</t>
-  </si>
-  <si>
-    <t>nh3_int</t>
-  </si>
-  <si>
-    <t>nh3_cams</t>
-  </si>
-  <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>co_cams</t>
-  </si>
-  <si>
-    <t>ndvi</t>
-  </si>
-  <si>
-    <t>rad_glob_int</t>
-  </si>
-  <si>
-    <t>int_sec</t>
   </si>
 </sst>
 </file>
@@ -443,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,90 +477,90 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2">
-        <v>122</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>112</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6">
-        <v>108</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7">
-        <v>103</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9">
-        <v>98</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -553,128 +571,128 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>92</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11">
-        <v>92</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13">
-        <v>82</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15">
-        <v>68</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16">
-        <v>66</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
         <v>19</v>
       </c>
       <c r="C19">
-        <v>55</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
       <c r="C21">
-        <v>52</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -685,18 +703,84 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>18</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
